--- a/Assets/Res/Exel/突破等级成长表.xlsx
+++ b/Assets/Res/Exel/突破等级成长表.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResConfig\Assets\Res\Exel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
-  <si>
-    <t>Level</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>AddCoefficient</t>
   </si>
@@ -38,20 +40,20 @@
   <si>
     <t>ConsumptionEssence</t>
   </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000000_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,151 +69,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,194 +97,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -434,318 +121,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1032,19 +434,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="19.125" customWidth="1"/>
@@ -1053,30 +453,30 @@
     <col min="7" max="7" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1101,12 +501,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B2:B31" si="0">POWER(1.03,A3)*10000</f>
+        <f t="shared" ref="B3:B31" si="0">POWER(1.03,A3)*10000</f>
         <v>10609</v>
       </c>
       <c r="C3" s="2">
@@ -1128,7 +528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1155,17 +555,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
-        <v>11255.0881</v>
+        <v>11255.088099999999</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>11255.0881</v>
+        <v>11255.088099999999</v>
       </c>
       <c r="D5" s="3">
         <v>50000</v>
@@ -1182,17 +582,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
-        <v>11592.740743</v>
+        <v>11592.740742999998</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="1"/>
-        <v>11592.740743</v>
+        <v>11592.740742999998</v>
       </c>
       <c r="D6" s="3">
         <v>60000</v>
@@ -1209,7 +609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1237,7 +637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1265,17 +665,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>12667.7008138762</v>
+        <v>12667.700813876159</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="1"/>
-        <v>12667.7008138762</v>
+        <v>12667.700813876159</v>
       </c>
       <c r="D9" s="3">
         <v>98000</v>
@@ -1293,17 +693,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>13047.7318382924</v>
+        <v>13047.731838292444</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="1"/>
-        <v>13047.7318382924</v>
+        <v>13047.731838292444</v>
       </c>
       <c r="D10" s="3">
         <v>110000</v>
@@ -1321,17 +721,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>13439.1637934412</v>
+        <v>13439.163793441217</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="1"/>
-        <v>13439.1637934412</v>
+        <v>13439.163793441217</v>
       </c>
       <c r="D11" s="3">
         <v>122000</v>
@@ -1349,17 +749,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>13842.3387072445</v>
+        <v>13842.338707244455</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="1"/>
-        <v>13842.3387072445</v>
+        <v>13842.338707244455</v>
       </c>
       <c r="D12" s="3">
         <v>134000</v>
@@ -1377,17 +777,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>14257.6088684618</v>
+        <v>14257.608868461786</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="1"/>
-        <v>14257.6088684618</v>
+        <v>14257.608868461786</v>
       </c>
       <c r="D13" s="4">
         <v>150000</v>
@@ -1405,17 +805,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>14685.3371345156</v>
+        <v>14685.337134515639</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="1"/>
-        <v>14685.3371345156</v>
+        <v>14685.337134515639</v>
       </c>
       <c r="D14" s="4">
         <v>158000</v>
@@ -1433,17 +833,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>15125.8972485511</v>
+        <v>15125.897248551109</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="1"/>
-        <v>15125.8972485511</v>
+        <v>15125.897248551109</v>
       </c>
       <c r="D15" s="4">
         <v>170000</v>
@@ -1461,17 +861,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>15579.6741660077</v>
+        <v>15579.674166007644</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="1"/>
-        <v>15579.6741660077</v>
+        <v>15579.674166007644</v>
       </c>
       <c r="D16" s="4">
         <v>182000</v>
@@ -1489,17 +889,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>16047.0643909879</v>
+        <v>16047.064390987871</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="1"/>
-        <v>16047.0643909879</v>
+        <v>16047.064390987871</v>
       </c>
       <c r="D17" s="4">
         <v>194000</v>
@@ -1517,17 +917,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>16528.4763227175</v>
+        <v>16528.476322717506</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="1"/>
-        <v>16528.4763227175</v>
+        <v>16528.476322717506</v>
       </c>
       <c r="D18" s="4">
         <v>206000</v>
@@ -1545,17 +945,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>17024.330612399</v>
+        <v>17024.330612399033</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="1"/>
-        <v>17024.330612399</v>
+        <v>17024.330612399033</v>
       </c>
       <c r="D19" s="4">
         <v>218000</v>
@@ -1573,17 +973,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>17535.060530771</v>
+        <v>17535.060530771003</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="1"/>
-        <v>17535.060530771</v>
+        <v>17535.060530771003</v>
       </c>
       <c r="D20" s="4">
         <v>230000</v>
@@ -1601,17 +1001,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>18061.1123466941</v>
+        <v>18061.112346694132</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="1"/>
-        <v>18061.1123466941</v>
+        <v>18061.112346694132</v>
       </c>
       <c r="D21" s="4">
         <v>242000</v>
@@ -1629,17 +1029,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>18602.945717095</v>
+        <v>18602.945717094954</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="1"/>
-        <v>18602.945717095</v>
+        <v>18602.945717094954</v>
       </c>
       <c r="D22" s="4">
         <v>254000</v>
@@ -1657,17 +1057,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>19161.0340886078</v>
+        <v>19161.034088607805</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>19161.0340886078</v>
+        <v>19161.034088607805</v>
       </c>
       <c r="D23" s="4">
         <v>266000</v>
@@ -1685,17 +1085,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>19735.8651112661</v>
+        <v>19735.865111266041</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>19735.8651112661</v>
+        <v>19735.865111266041</v>
       </c>
       <c r="D24" s="4">
         <v>278000</v>
@@ -1713,17 +1113,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>20327.941064604</v>
+        <v>20327.94106460402</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>20327.941064604</v>
+        <v>20327.94106460402</v>
       </c>
       <c r="D25" s="4">
         <v>290000</v>
@@ -1741,17 +1141,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>20937.7792965422</v>
+        <v>20937.779296542139</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
-        <v>20937.7792965422</v>
+        <v>20937.779296542139</v>
       </c>
       <c r="D26" s="4">
         <v>302000</v>
@@ -1769,17 +1169,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>21565.9126754384</v>
+        <v>21565.912675438405</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
-        <v>21565.9126754384</v>
+        <v>21565.912675438405</v>
       </c>
       <c r="D27" s="4">
         <v>314000</v>
@@ -1797,17 +1197,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>22212.8900557016</v>
+        <v>22212.890055701555</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
-        <v>22212.8900557016</v>
+        <v>22212.890055701555</v>
       </c>
       <c r="D28" s="4">
         <v>326000</v>
@@ -1825,17 +1225,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>22879.2767573726</v>
+        <v>22879.276757372601</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
-        <v>22879.2767573726</v>
+        <v>22879.276757372601</v>
       </c>
       <c r="D29" s="4">
         <v>338000</v>
@@ -1853,17 +1253,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>23565.6550600938</v>
+        <v>23565.655060093777</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
-        <v>23565.6550600938</v>
+        <v>23565.655060093777</v>
       </c>
       <c r="D30" s="4">
         <v>350000</v>
@@ -1881,17 +1281,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>24272.6247118966</v>
+        <v>24272.624711896591</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
-        <v>24272.6247118966</v>
+        <v>24272.624711896591</v>
       </c>
       <c r="D31" s="4">
         <v>362000</v>
@@ -1909,17 +1309,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" ref="B32:B51" si="5">24272.62471*POWER(1.05,(A32-30))</f>
-        <v>25486.2559455</v>
+        <v>25486.255945500001</v>
       </c>
       <c r="C32" s="2">
         <f>24272.62471*POWER(1.05,(A32-30))</f>
-        <v>25486.2559455</v>
+        <v>25486.255945500001</v>
       </c>
       <c r="D32" s="4">
         <v>374000</v>
@@ -1937,17 +1337,17 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" si="5"/>
-        <v>26760.568742775</v>
+        <v>26760.568742775002</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" ref="C33:C51" si="6">24272.62471*POWER(1.05,(A33-30))</f>
-        <v>26760.568742775</v>
+        <v>26760.568742775002</v>
       </c>
       <c r="D33" s="4">
         <v>386000</v>
@@ -1965,17 +1365,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" si="5"/>
-        <v>28098.5971799138</v>
+        <v>28098.597179913751</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="6"/>
-        <v>28098.5971799138</v>
+        <v>28098.597179913751</v>
       </c>
       <c r="D34" s="4">
         <v>398000</v>
@@ -1993,17 +1393,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="2">
         <f t="shared" si="5"/>
-        <v>29503.5270389094</v>
+        <v>29503.527038909437</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="6"/>
-        <v>29503.5270389094</v>
+        <v>29503.527038909437</v>
       </c>
       <c r="D35" s="4">
         <v>410000</v>
@@ -2021,17 +1421,17 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="2">
         <f t="shared" si="5"/>
-        <v>30978.7033908549</v>
+        <v>30978.703390854913</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="6"/>
-        <v>30978.7033908549</v>
+        <v>30978.703390854913</v>
       </c>
       <c r="D36" s="4">
         <v>422000</v>
@@ -2049,17 +1449,17 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="2">
         <f t="shared" si="5"/>
-        <v>32527.6385603977</v>
+        <v>32527.638560397656</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="6"/>
-        <v>32527.6385603977</v>
+        <v>32527.638560397656</v>
       </c>
       <c r="D37" s="4">
         <v>434000</v>
@@ -2077,17 +1477,17 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="2">
         <f t="shared" si="5"/>
-        <v>34154.0204884175</v>
+        <v>34154.02048841754</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="6"/>
-        <v>34154.0204884175</v>
+        <v>34154.02048841754</v>
       </c>
       <c r="D38" s="4">
         <v>446000</v>
@@ -2105,17 +1505,17 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="2">
         <f t="shared" si="5"/>
-        <v>35861.7215128384</v>
+        <v>35861.72151283842</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" si="6"/>
-        <v>35861.7215128384</v>
+        <v>35861.72151283842</v>
       </c>
       <c r="D39" s="4">
         <v>458000</v>
@@ -2133,17 +1533,17 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="2">
         <f t="shared" si="5"/>
-        <v>37654.8075884803</v>
+        <v>37654.80758848034</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" si="6"/>
-        <v>37654.8075884803</v>
+        <v>37654.80758848034</v>
       </c>
       <c r="D40" s="4">
         <v>470000</v>
@@ -2161,17 +1561,17 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="2">
         <f t="shared" si="5"/>
-        <v>39537.5479679044</v>
+        <v>39537.547967904356</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" si="6"/>
-        <v>39537.5479679044</v>
+        <v>39537.547967904356</v>
       </c>
       <c r="D41" s="4">
         <v>482000</v>
@@ -2189,17 +1589,17 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="2">
         <f t="shared" si="5"/>
-        <v>41514.4253662996</v>
+        <v>41514.425366299576</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" si="6"/>
-        <v>41514.4253662996</v>
+        <v>41514.425366299576</v>
       </c>
       <c r="D42" s="4">
         <v>494000</v>
@@ -2217,17 +1617,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="2">
         <f t="shared" si="5"/>
-        <v>43590.1466346146</v>
+        <v>43590.146634614546</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" si="6"/>
-        <v>43590.1466346146</v>
+        <v>43590.146634614546</v>
       </c>
       <c r="D43" s="4">
         <v>506000</v>
@@ -2245,17 +1645,17 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="2">
         <f t="shared" si="5"/>
-        <v>45769.6539663453</v>
+        <v>45769.653966345286</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" si="6"/>
-        <v>45769.6539663453</v>
+        <v>45769.653966345286</v>
       </c>
       <c r="D44" s="4">
         <v>518000</v>
@@ -2273,17 +1673,17 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="2">
         <f t="shared" si="5"/>
-        <v>48058.1366646626</v>
+        <v>48058.136664662539</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" si="6"/>
-        <v>48058.1366646626</v>
+        <v>48058.136664662539</v>
       </c>
       <c r="D45" s="4">
         <v>530000</v>
@@ -2301,17 +1701,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="2">
         <f t="shared" si="5"/>
-        <v>50461.0434978957</v>
+        <v>50461.043497895684</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" si="6"/>
-        <v>50461.0434978957</v>
+        <v>50461.043497895684</v>
       </c>
       <c r="D46" s="4">
         <v>542000</v>
@@ -2329,17 +1729,17 @@
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" si="5"/>
-        <v>52984.0956727905</v>
+        <v>52984.095672790463</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" si="6"/>
-        <v>52984.0956727905</v>
+        <v>52984.095672790463</v>
       </c>
       <c r="D47" s="4">
         <v>554000</v>
@@ -2357,17 +1757,17 @@
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="2">
         <f t="shared" si="5"/>
-        <v>55633.30045643</v>
+        <v>55633.300456429992</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" si="6"/>
-        <v>55633.30045643</v>
+        <v>55633.300456429992</v>
       </c>
       <c r="D48" s="4">
         <v>566000</v>
@@ -2385,17 +1785,17 @@
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="2">
         <f t="shared" si="5"/>
-        <v>58414.9654792515</v>
+        <v>58414.965479251492</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" si="6"/>
-        <v>58414.9654792515</v>
+        <v>58414.965479251492</v>
       </c>
       <c r="D49" s="4">
         <v>578000</v>
@@ -2413,17 +1813,17 @@
         <v>220</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="2">
         <f t="shared" si="5"/>
-        <v>61335.7137532141</v>
+        <v>61335.713753214062</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" si="6"/>
-        <v>61335.7137532141</v>
+        <v>61335.713753214062</v>
       </c>
       <c r="D50" s="4">
         <v>590000</v>
@@ -2441,17 +1841,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="2">
         <f t="shared" si="5"/>
-        <v>64402.4994408748</v>
+        <v>64402.499440874766</v>
       </c>
       <c r="C51" s="2">
         <f t="shared" si="6"/>
-        <v>64402.4994408748</v>
+        <v>64402.499440874766</v>
       </c>
       <c r="D51" s="4">
         <v>602000</v>
@@ -2470,42 +1870,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>